--- a/Results/add_noun/20-partial.xlsx
+++ b/Results/add_noun/20-partial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2099" uniqueCount="926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2097" uniqueCount="924">
   <si>
     <t>id</t>
   </si>
@@ -1973,12 +1973,6 @@
   </si>
   <si>
     <t>good|food</t>
-  </si>
-  <si>
-    <t>d|u|c|k|||c|o|n|f|i|t|||f|o|i|e|||t|e|r|r|i|n|e|||f|i|g|s|||w|o|r|l|d</t>
-  </si>
-  <si>
-    <t>c|h|o|w|||f|u|n|||p|o|r|k|||s|h|u|||m|a|i|||t|a|b|l|e|||f|a|m|i|l|y</t>
   </si>
   <si>
     <t>price|service</t>
@@ -5545,9 +5539,6 @@
       <c r="D141" t="s">
         <v>595</v>
       </c>
-      <c r="E141" t="s">
-        <v>653</v>
-      </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="1">
@@ -5562,9 +5553,6 @@
       <c r="D142" t="s">
         <v>595</v>
       </c>
-      <c r="E142" t="s">
-        <v>654</v>
-      </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="1">
@@ -5580,7 +5568,7 @@
         <v>597</v>
       </c>
       <c r="E143" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -5597,7 +5585,7 @@
         <v>598</v>
       </c>
       <c r="E144" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -5614,7 +5602,7 @@
         <v>596</v>
       </c>
       <c r="E145" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -5648,7 +5636,7 @@
         <v>596</v>
       </c>
       <c r="E147" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -5665,7 +5653,7 @@
         <v>595</v>
       </c>
       <c r="E148" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5699,7 +5687,7 @@
         <v>595</v>
       </c>
       <c r="E150" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5716,7 +5704,7 @@
         <v>594</v>
       </c>
       <c r="E151" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5750,7 +5738,7 @@
         <v>594</v>
       </c>
       <c r="E153" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5767,7 +5755,7 @@
         <v>588</v>
       </c>
       <c r="E154" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5784,7 +5772,7 @@
         <v>594</v>
       </c>
       <c r="E155" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5801,7 +5789,7 @@
         <v>594</v>
       </c>
       <c r="E156" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5835,7 +5823,7 @@
         <v>594</v>
       </c>
       <c r="E158" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5852,7 +5840,7 @@
         <v>596</v>
       </c>
       <c r="E159" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5869,7 +5857,7 @@
         <v>595</v>
       </c>
       <c r="E160" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5886,7 +5874,7 @@
         <v>596</v>
       </c>
       <c r="E161" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5920,7 +5908,7 @@
         <v>600</v>
       </c>
       <c r="E163" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5937,7 +5925,7 @@
         <v>587</v>
       </c>
       <c r="E164" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5971,7 +5959,7 @@
         <v>596</v>
       </c>
       <c r="E166" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -6005,7 +5993,7 @@
         <v>601</v>
       </c>
       <c r="E168" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -6022,7 +6010,7 @@
         <v>594</v>
       </c>
       <c r="E169" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -6056,7 +6044,7 @@
         <v>588</v>
       </c>
       <c r="E171" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -6073,7 +6061,7 @@
         <v>588</v>
       </c>
       <c r="E172" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -6090,7 +6078,7 @@
         <v>602</v>
       </c>
       <c r="E173" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -6107,7 +6095,7 @@
         <v>596</v>
       </c>
       <c r="E174" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -6124,7 +6112,7 @@
         <v>588</v>
       </c>
       <c r="E175" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -6141,7 +6129,7 @@
         <v>588</v>
       </c>
       <c r="E176" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -6175,7 +6163,7 @@
         <v>595</v>
       </c>
       <c r="E178" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -6192,7 +6180,7 @@
         <v>584</v>
       </c>
       <c r="E179" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -6209,7 +6197,7 @@
         <v>604</v>
       </c>
       <c r="E180" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -6226,7 +6214,7 @@
         <v>596</v>
       </c>
       <c r="E181" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -6243,7 +6231,7 @@
         <v>604</v>
       </c>
       <c r="E182" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -6260,7 +6248,7 @@
         <v>596</v>
       </c>
       <c r="E183" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -6277,7 +6265,7 @@
         <v>595</v>
       </c>
       <c r="E184" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -6294,7 +6282,7 @@
         <v>595</v>
       </c>
       <c r="E185" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -6311,7 +6299,7 @@
         <v>594</v>
       </c>
       <c r="E186" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -6328,7 +6316,7 @@
         <v>605</v>
       </c>
       <c r="E187" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -6362,7 +6350,7 @@
         <v>594</v>
       </c>
       <c r="E189" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -6396,7 +6384,7 @@
         <v>606</v>
       </c>
       <c r="E191" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -6413,7 +6401,7 @@
         <v>594</v>
       </c>
       <c r="E192" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -6430,7 +6418,7 @@
         <v>594</v>
       </c>
       <c r="E193" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -6447,7 +6435,7 @@
         <v>594</v>
       </c>
       <c r="E194" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -6464,7 +6452,7 @@
         <v>607</v>
       </c>
       <c r="E195" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -6481,7 +6469,7 @@
         <v>583</v>
       </c>
       <c r="E196" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -6498,7 +6486,7 @@
         <v>596</v>
       </c>
       <c r="E197" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -6549,7 +6537,7 @@
         <v>594</v>
       </c>
       <c r="E200" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6566,7 +6554,7 @@
         <v>600</v>
       </c>
       <c r="E201" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -6583,7 +6571,7 @@
         <v>594</v>
       </c>
       <c r="E202" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -6600,7 +6588,7 @@
         <v>596</v>
       </c>
       <c r="E203" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6617,7 +6605,7 @@
         <v>608</v>
       </c>
       <c r="E204" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6634,7 +6622,7 @@
         <v>588</v>
       </c>
       <c r="E205" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6651,7 +6639,7 @@
         <v>588</v>
       </c>
       <c r="E206" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6668,7 +6656,7 @@
         <v>600</v>
       </c>
       <c r="E207" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6685,7 +6673,7 @@
         <v>596</v>
       </c>
       <c r="E208" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6702,7 +6690,7 @@
         <v>609</v>
       </c>
       <c r="E209" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6719,7 +6707,7 @@
         <v>608</v>
       </c>
       <c r="E210" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6736,7 +6724,7 @@
         <v>595</v>
       </c>
       <c r="E211" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6753,7 +6741,7 @@
         <v>608</v>
       </c>
       <c r="E212" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6770,7 +6758,7 @@
         <v>610</v>
       </c>
       <c r="E213" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6787,7 +6775,7 @@
         <v>595</v>
       </c>
       <c r="E214" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6804,7 +6792,7 @@
         <v>594</v>
       </c>
       <c r="E215" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6821,7 +6809,7 @@
         <v>587</v>
       </c>
       <c r="E216" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6838,7 +6826,7 @@
         <v>588</v>
       </c>
       <c r="E217" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6855,7 +6843,7 @@
         <v>588</v>
       </c>
       <c r="E218" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6872,7 +6860,7 @@
         <v>595</v>
       </c>
       <c r="E219" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6889,7 +6877,7 @@
         <v>594</v>
       </c>
       <c r="E220" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6906,7 +6894,7 @@
         <v>609</v>
       </c>
       <c r="E221" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6923,7 +6911,7 @@
         <v>594</v>
       </c>
       <c r="E222" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6957,7 +6945,7 @@
         <v>595</v>
       </c>
       <c r="E224" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6974,7 +6962,7 @@
         <v>588</v>
       </c>
       <c r="E225" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6991,7 +6979,7 @@
         <v>594</v>
       </c>
       <c r="E226" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -7008,7 +6996,7 @@
         <v>597</v>
       </c>
       <c r="E227" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -7025,7 +7013,7 @@
         <v>595</v>
       </c>
       <c r="E228" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -7042,7 +7030,7 @@
         <v>596</v>
       </c>
       <c r="E229" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -7059,7 +7047,7 @@
         <v>597</v>
       </c>
       <c r="E230" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -7093,7 +7081,7 @@
         <v>596</v>
       </c>
       <c r="E232" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -7110,7 +7098,7 @@
         <v>611</v>
       </c>
       <c r="E233" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -7127,7 +7115,7 @@
         <v>594</v>
       </c>
       <c r="E234" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -7144,7 +7132,7 @@
         <v>596</v>
       </c>
       <c r="E235" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -7161,7 +7149,7 @@
         <v>594</v>
       </c>
       <c r="E236" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -7195,7 +7183,7 @@
         <v>609</v>
       </c>
       <c r="E238" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -7212,7 +7200,7 @@
         <v>594</v>
       </c>
       <c r="E239" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -7246,7 +7234,7 @@
         <v>609</v>
       </c>
       <c r="E241" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -7263,7 +7251,7 @@
         <v>609</v>
       </c>
       <c r="E242" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -7280,7 +7268,7 @@
         <v>596</v>
       </c>
       <c r="E243" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -7297,7 +7285,7 @@
         <v>595</v>
       </c>
       <c r="E244" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -7331,7 +7319,7 @@
         <v>609</v>
       </c>
       <c r="E246" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -7348,7 +7336,7 @@
         <v>604</v>
       </c>
       <c r="E247" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -7365,7 +7353,7 @@
         <v>588</v>
       </c>
       <c r="E248" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -7382,7 +7370,7 @@
         <v>596</v>
       </c>
       <c r="E249" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -7399,7 +7387,7 @@
         <v>596</v>
       </c>
       <c r="E250" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -7416,7 +7404,7 @@
         <v>600</v>
       </c>
       <c r="E251" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -7433,7 +7421,7 @@
         <v>595</v>
       </c>
       <c r="E252" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -7450,7 +7438,7 @@
         <v>604</v>
       </c>
       <c r="E253" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -7467,7 +7455,7 @@
         <v>612</v>
       </c>
       <c r="E254" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -7484,7 +7472,7 @@
         <v>594</v>
       </c>
       <c r="E255" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -7501,7 +7489,7 @@
         <v>596</v>
       </c>
       <c r="E256" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -7518,7 +7506,7 @@
         <v>604</v>
       </c>
       <c r="E257" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -7535,7 +7523,7 @@
         <v>596</v>
       </c>
       <c r="E258" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -7552,7 +7540,7 @@
         <v>594</v>
       </c>
       <c r="E259" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -7569,7 +7557,7 @@
         <v>596</v>
       </c>
       <c r="E260" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -7586,7 +7574,7 @@
         <v>596</v>
       </c>
       <c r="E261" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -7603,7 +7591,7 @@
         <v>588</v>
       </c>
       <c r="E262" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -7620,7 +7608,7 @@
         <v>588</v>
       </c>
       <c r="E263" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -7637,7 +7625,7 @@
         <v>588</v>
       </c>
       <c r="E264" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -7654,7 +7642,7 @@
         <v>596</v>
       </c>
       <c r="E265" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -7671,7 +7659,7 @@
         <v>596</v>
       </c>
       <c r="E266" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -7688,7 +7676,7 @@
         <v>596</v>
       </c>
       <c r="E267" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -7705,7 +7693,7 @@
         <v>584</v>
       </c>
       <c r="E268" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -7722,7 +7710,7 @@
         <v>587</v>
       </c>
       <c r="E269" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -7739,7 +7727,7 @@
         <v>596</v>
       </c>
       <c r="E270" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -7773,7 +7761,7 @@
         <v>600</v>
       </c>
       <c r="E272" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7790,7 +7778,7 @@
         <v>610</v>
       </c>
       <c r="E273" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7824,7 +7812,7 @@
         <v>594</v>
       </c>
       <c r="E275" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7841,7 +7829,7 @@
         <v>595</v>
       </c>
       <c r="E276" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -7858,7 +7846,7 @@
         <v>596</v>
       </c>
       <c r="E277" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -7875,7 +7863,7 @@
         <v>614</v>
       </c>
       <c r="E278" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -7892,7 +7880,7 @@
         <v>594</v>
       </c>
       <c r="E279" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -7909,7 +7897,7 @@
         <v>615</v>
       </c>
       <c r="E280" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -7926,7 +7914,7 @@
         <v>616</v>
       </c>
       <c r="E281" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7943,7 +7931,7 @@
         <v>607</v>
       </c>
       <c r="E282" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -7960,7 +7948,7 @@
         <v>596</v>
       </c>
       <c r="E283" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -7977,7 +7965,7 @@
         <v>596</v>
       </c>
       <c r="E284" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -7994,7 +7982,7 @@
         <v>617</v>
       </c>
       <c r="E285" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -8028,7 +8016,7 @@
         <v>596</v>
       </c>
       <c r="E287" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -8045,7 +8033,7 @@
         <v>595</v>
       </c>
       <c r="E288" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -8062,7 +8050,7 @@
         <v>610</v>
       </c>
       <c r="E289" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -8096,7 +8084,7 @@
         <v>595</v>
       </c>
       <c r="E291" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -8113,7 +8101,7 @@
         <v>598</v>
       </c>
       <c r="E292" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -8130,7 +8118,7 @@
         <v>600</v>
       </c>
       <c r="E293" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -8147,7 +8135,7 @@
         <v>596</v>
       </c>
       <c r="E294" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -8164,7 +8152,7 @@
         <v>588</v>
       </c>
       <c r="E295" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -8181,7 +8169,7 @@
         <v>596</v>
       </c>
       <c r="E296" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -8198,7 +8186,7 @@
         <v>588</v>
       </c>
       <c r="E297" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -8215,7 +8203,7 @@
         <v>596</v>
       </c>
       <c r="E298" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -8232,7 +8220,7 @@
         <v>588</v>
       </c>
       <c r="E299" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -8249,7 +8237,7 @@
         <v>618</v>
       </c>
       <c r="E300" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -8300,7 +8288,7 @@
         <v>594</v>
       </c>
       <c r="E303" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -8317,7 +8305,7 @@
         <v>595</v>
       </c>
       <c r="E304" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -8334,7 +8322,7 @@
         <v>596</v>
       </c>
       <c r="E305" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -8351,7 +8339,7 @@
         <v>596</v>
       </c>
       <c r="E306" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -8368,7 +8356,7 @@
         <v>597</v>
       </c>
       <c r="E307" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -8385,7 +8373,7 @@
         <v>596</v>
       </c>
       <c r="E308" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -8402,7 +8390,7 @@
         <v>596</v>
       </c>
       <c r="E309" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -8419,7 +8407,7 @@
         <v>598</v>
       </c>
       <c r="E310" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -8436,7 +8424,7 @@
         <v>619</v>
       </c>
       <c r="E311" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -8470,7 +8458,7 @@
         <v>588</v>
       </c>
       <c r="E313" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -8487,7 +8475,7 @@
         <v>617</v>
       </c>
       <c r="E314" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -8504,7 +8492,7 @@
         <v>607</v>
       </c>
       <c r="E315" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -8521,7 +8509,7 @@
         <v>620</v>
       </c>
       <c r="E316" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -8538,7 +8526,7 @@
         <v>594</v>
       </c>
       <c r="E317" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -8555,7 +8543,7 @@
         <v>595</v>
       </c>
       <c r="E318" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -8572,7 +8560,7 @@
         <v>596</v>
       </c>
       <c r="E319" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -8623,7 +8611,7 @@
         <v>597</v>
       </c>
       <c r="E322" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -8640,7 +8628,7 @@
         <v>596</v>
       </c>
       <c r="E323" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -8674,7 +8662,7 @@
         <v>621</v>
       </c>
       <c r="E325" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8691,7 +8679,7 @@
         <v>596</v>
       </c>
       <c r="E326" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8708,7 +8696,7 @@
         <v>596</v>
       </c>
       <c r="E327" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -8742,7 +8730,7 @@
         <v>588</v>
       </c>
       <c r="E329" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -8759,7 +8747,7 @@
         <v>596</v>
       </c>
       <c r="E330" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -8776,7 +8764,7 @@
         <v>596</v>
       </c>
       <c r="E331" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -8793,7 +8781,7 @@
         <v>594</v>
       </c>
       <c r="E332" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -8844,7 +8832,7 @@
         <v>588</v>
       </c>
       <c r="E335" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -8861,7 +8849,7 @@
         <v>594</v>
       </c>
       <c r="E336" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -8878,7 +8866,7 @@
         <v>596</v>
       </c>
       <c r="E337" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -8895,7 +8883,7 @@
         <v>594</v>
       </c>
       <c r="E338" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -8912,7 +8900,7 @@
         <v>596</v>
       </c>
       <c r="E339" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -8929,7 +8917,7 @@
         <v>594</v>
       </c>
       <c r="E340" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -8946,7 +8934,7 @@
         <v>622</v>
       </c>
       <c r="E341" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -8963,7 +8951,7 @@
         <v>596</v>
       </c>
       <c r="E342" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -8980,7 +8968,7 @@
         <v>595</v>
       </c>
       <c r="E343" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -8997,7 +8985,7 @@
         <v>595</v>
       </c>
       <c r="E344" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -9014,7 +9002,7 @@
         <v>596</v>
       </c>
       <c r="E345" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -9048,7 +9036,7 @@
         <v>610</v>
       </c>
       <c r="E347" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -9082,7 +9070,7 @@
         <v>596</v>
       </c>
       <c r="E349" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -9099,7 +9087,7 @@
         <v>588</v>
       </c>
       <c r="E350" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -9133,7 +9121,7 @@
         <v>596</v>
       </c>
       <c r="E352" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -9150,7 +9138,7 @@
         <v>597</v>
       </c>
       <c r="E353" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -9167,7 +9155,7 @@
         <v>596</v>
       </c>
       <c r="E354" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -9184,7 +9172,7 @@
         <v>596</v>
       </c>
       <c r="E355" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -9201,7 +9189,7 @@
         <v>600</v>
       </c>
       <c r="E356" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -9218,7 +9206,7 @@
         <v>603</v>
       </c>
       <c r="E357" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -9235,7 +9223,7 @@
         <v>595</v>
       </c>
       <c r="E358" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -9269,7 +9257,7 @@
         <v>600</v>
       </c>
       <c r="E360" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -9303,7 +9291,7 @@
         <v>594</v>
       </c>
       <c r="E362" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -9320,7 +9308,7 @@
         <v>596</v>
       </c>
       <c r="E363" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -9337,7 +9325,7 @@
         <v>594</v>
       </c>
       <c r="E364" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -9354,7 +9342,7 @@
         <v>594</v>
       </c>
       <c r="E365" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -9388,7 +9376,7 @@
         <v>594</v>
       </c>
       <c r="E367" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -9405,7 +9393,7 @@
         <v>617</v>
       </c>
       <c r="E368" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -9422,7 +9410,7 @@
         <v>584</v>
       </c>
       <c r="E369" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -9439,7 +9427,7 @@
         <v>595</v>
       </c>
       <c r="E370" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -9456,7 +9444,7 @@
         <v>610</v>
       </c>
       <c r="E371" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -9507,7 +9495,7 @@
         <v>595</v>
       </c>
       <c r="E374" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -9524,7 +9512,7 @@
         <v>595</v>
       </c>
       <c r="E375" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -9541,7 +9529,7 @@
         <v>596</v>
       </c>
       <c r="E376" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -9558,7 +9546,7 @@
         <v>596</v>
       </c>
       <c r="E377" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -9575,7 +9563,7 @@
         <v>596</v>
       </c>
       <c r="E378" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -9592,7 +9580,7 @@
         <v>603</v>
       </c>
       <c r="E379" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -9609,7 +9597,7 @@
         <v>595</v>
       </c>
       <c r="E380" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -9626,7 +9614,7 @@
         <v>594</v>
       </c>
       <c r="E381" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -9643,7 +9631,7 @@
         <v>594</v>
       </c>
       <c r="E382" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -9660,7 +9648,7 @@
         <v>596</v>
       </c>
       <c r="E383" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -9677,7 +9665,7 @@
         <v>596</v>
       </c>
       <c r="E384" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -9694,7 +9682,7 @@
         <v>607</v>
       </c>
       <c r="E385" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -9711,7 +9699,7 @@
         <v>594</v>
       </c>
       <c r="E386" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -9728,7 +9716,7 @@
         <v>616</v>
       </c>
       <c r="E387" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -9762,7 +9750,7 @@
         <v>595</v>
       </c>
       <c r="E389" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -9779,7 +9767,7 @@
         <v>584</v>
       </c>
       <c r="E390" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -9796,7 +9784,7 @@
         <v>588</v>
       </c>
       <c r="E391" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -9830,7 +9818,7 @@
         <v>588</v>
       </c>
       <c r="E393" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -9847,7 +9835,7 @@
         <v>610</v>
       </c>
       <c r="E394" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -9898,7 +9886,7 @@
         <v>596</v>
       </c>
       <c r="E397" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -9915,7 +9903,7 @@
         <v>594</v>
       </c>
       <c r="E398" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -9932,7 +9920,7 @@
         <v>595</v>
       </c>
       <c r="E399" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -9949,7 +9937,7 @@
         <v>595</v>
       </c>
       <c r="E400" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -9966,7 +9954,7 @@
         <v>598</v>
       </c>
       <c r="E401" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -9983,7 +9971,7 @@
         <v>596</v>
       </c>
       <c r="E402" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -10000,7 +9988,7 @@
         <v>584</v>
       </c>
       <c r="E403" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -10017,7 +10005,7 @@
         <v>611</v>
       </c>
       <c r="E404" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -10034,7 +10022,7 @@
         <v>594</v>
       </c>
       <c r="E405" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -10051,7 +10039,7 @@
         <v>596</v>
       </c>
       <c r="E406" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -10068,7 +10056,7 @@
         <v>603</v>
       </c>
       <c r="E407" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -10119,7 +10107,7 @@
         <v>587</v>
       </c>
       <c r="E410" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -10136,7 +10124,7 @@
         <v>596</v>
       </c>
       <c r="E411" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -10153,7 +10141,7 @@
         <v>596</v>
       </c>
       <c r="E412" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -10170,7 +10158,7 @@
         <v>588</v>
       </c>
       <c r="E413" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -10187,7 +10175,7 @@
         <v>624</v>
       </c>
       <c r="E414" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -10204,7 +10192,7 @@
         <v>594</v>
       </c>
       <c r="E415" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -10221,7 +10209,7 @@
         <v>594</v>
       </c>
       <c r="E416" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -10238,7 +10226,7 @@
         <v>594</v>
       </c>
       <c r="E417" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -10255,7 +10243,7 @@
         <v>594</v>
       </c>
       <c r="E418" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -10272,7 +10260,7 @@
         <v>596</v>
       </c>
       <c r="E419" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -10289,7 +10277,7 @@
         <v>596</v>
       </c>
       <c r="E420" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -10306,7 +10294,7 @@
         <v>588</v>
       </c>
       <c r="E421" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -10323,7 +10311,7 @@
         <v>608</v>
       </c>
       <c r="E422" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -10340,7 +10328,7 @@
         <v>596</v>
       </c>
       <c r="E423" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -10357,7 +10345,7 @@
         <v>594</v>
       </c>
       <c r="E424" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -10374,7 +10362,7 @@
         <v>625</v>
       </c>
       <c r="E425" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -10408,7 +10396,7 @@
         <v>584</v>
       </c>
       <c r="E427" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -10425,7 +10413,7 @@
         <v>588</v>
       </c>
       <c r="E428" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -10442,7 +10430,7 @@
         <v>598</v>
       </c>
       <c r="E429" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -10459,7 +10447,7 @@
         <v>600</v>
       </c>
       <c r="E430" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -10476,7 +10464,7 @@
         <v>594</v>
       </c>
       <c r="E431" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -10493,7 +10481,7 @@
         <v>600</v>
       </c>
       <c r="E432" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -10510,7 +10498,7 @@
         <v>596</v>
       </c>
       <c r="E433" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -10527,7 +10515,7 @@
         <v>594</v>
       </c>
       <c r="E434" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -10561,7 +10549,7 @@
         <v>609</v>
       </c>
       <c r="E436" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -10612,7 +10600,7 @@
         <v>594</v>
       </c>
       <c r="E439" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="440" spans="1:5">
@@ -10629,7 +10617,7 @@
         <v>596</v>
       </c>
       <c r="E440" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -10663,7 +10651,7 @@
         <v>594</v>
       </c>
       <c r="E442" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -10680,7 +10668,7 @@
         <v>595</v>
       </c>
       <c r="E443" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -10714,7 +10702,7 @@
         <v>596</v>
       </c>
       <c r="E445" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="446" spans="1:5">
@@ -10731,7 +10719,7 @@
         <v>607</v>
       </c>
       <c r="E446" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -10765,7 +10753,7 @@
         <v>596</v>
       </c>
       <c r="E448" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -10782,7 +10770,7 @@
         <v>596</v>
       </c>
       <c r="E449" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -10816,7 +10804,7 @@
         <v>595</v>
       </c>
       <c r="E451" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="452" spans="1:5">
@@ -10833,7 +10821,7 @@
         <v>588</v>
       </c>
       <c r="E452" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -10850,7 +10838,7 @@
         <v>596</v>
       </c>
       <c r="E453" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -10867,7 +10855,7 @@
         <v>595</v>
       </c>
       <c r="E454" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="455" spans="1:5">
@@ -10884,7 +10872,7 @@
         <v>595</v>
       </c>
       <c r="E455" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="456" spans="1:5">
@@ -10918,7 +10906,7 @@
         <v>596</v>
       </c>
       <c r="E457" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -10935,7 +10923,7 @@
         <v>618</v>
       </c>
       <c r="E458" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -10952,7 +10940,7 @@
         <v>601</v>
       </c>
       <c r="E459" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -10969,7 +10957,7 @@
         <v>594</v>
       </c>
       <c r="E460" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="461" spans="1:5">
@@ -10986,7 +10974,7 @@
         <v>597</v>
       </c>
       <c r="E461" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -11003,7 +10991,7 @@
         <v>626</v>
       </c>
       <c r="E462" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -11054,7 +11042,7 @@
         <v>594</v>
       </c>
       <c r="E465" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -11071,7 +11059,7 @@
         <v>594</v>
       </c>
       <c r="E466" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -11105,7 +11093,7 @@
         <v>596</v>
       </c>
       <c r="E468" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -11122,7 +11110,7 @@
         <v>596</v>
       </c>
       <c r="E469" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -11139,7 +11127,7 @@
         <v>597</v>
       </c>
       <c r="E470" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -11156,7 +11144,7 @@
         <v>604</v>
       </c>
       <c r="E471" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -11173,7 +11161,7 @@
         <v>600</v>
       </c>
       <c r="E472" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -11190,7 +11178,7 @@
         <v>596</v>
       </c>
       <c r="E473" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -11207,7 +11195,7 @@
         <v>627</v>
       </c>
       <c r="E474" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -11224,7 +11212,7 @@
         <v>596</v>
       </c>
       <c r="E475" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -11241,7 +11229,7 @@
         <v>596</v>
       </c>
       <c r="E476" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -11258,7 +11246,7 @@
         <v>596</v>
       </c>
       <c r="E477" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -11275,7 +11263,7 @@
         <v>596</v>
       </c>
       <c r="E478" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -11292,7 +11280,7 @@
         <v>600</v>
       </c>
       <c r="E479" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -11309,7 +11297,7 @@
         <v>600</v>
       </c>
       <c r="E480" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -11326,7 +11314,7 @@
         <v>595</v>
       </c>
       <c r="E481" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -11343,7 +11331,7 @@
         <v>625</v>
       </c>
       <c r="E482" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -11360,7 +11348,7 @@
         <v>595</v>
       </c>
       <c r="E483" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -11377,7 +11365,7 @@
         <v>596</v>
       </c>
       <c r="E484" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -11394,7 +11382,7 @@
         <v>600</v>
       </c>
       <c r="E485" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -11428,7 +11416,7 @@
         <v>596</v>
       </c>
       <c r="E487" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -11445,7 +11433,7 @@
         <v>604</v>
       </c>
       <c r="E488" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -11462,7 +11450,7 @@
         <v>591</v>
       </c>
       <c r="E489" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -11479,7 +11467,7 @@
         <v>608</v>
       </c>
       <c r="E490" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -11513,7 +11501,7 @@
         <v>596</v>
       </c>
       <c r="E492" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -11530,7 +11518,7 @@
         <v>616</v>
       </c>
       <c r="E493" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -11547,7 +11535,7 @@
         <v>594</v>
       </c>
       <c r="E494" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -11564,7 +11552,7 @@
         <v>595</v>
       </c>
       <c r="E495" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -11581,7 +11569,7 @@
         <v>596</v>
       </c>
       <c r="E496" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -11598,7 +11586,7 @@
         <v>608</v>
       </c>
       <c r="E497" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -11615,7 +11603,7 @@
         <v>596</v>
       </c>
       <c r="E498" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="499" spans="1:5">
@@ -11632,7 +11620,7 @@
         <v>594</v>
       </c>
       <c r="E499" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -11649,7 +11637,7 @@
         <v>595</v>
       </c>
       <c r="E500" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="501" spans="1:5">
@@ -11666,7 +11654,7 @@
         <v>584</v>
       </c>
       <c r="E501" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="502" spans="1:5">
@@ -11683,7 +11671,7 @@
         <v>592</v>
       </c>
       <c r="E502" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="503" spans="1:5">
@@ -11700,7 +11688,7 @@
         <v>596</v>
       </c>
       <c r="E503" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="504" spans="1:5">
@@ -11734,7 +11722,7 @@
         <v>588</v>
       </c>
       <c r="E505" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="506" spans="1:5">
@@ -11751,7 +11739,7 @@
         <v>604</v>
       </c>
       <c r="E506" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="507" spans="1:5">
@@ -11768,7 +11756,7 @@
         <v>588</v>
       </c>
       <c r="E507" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="508" spans="1:5">
@@ -11785,7 +11773,7 @@
         <v>596</v>
       </c>
       <c r="E508" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="509" spans="1:5">
@@ -11802,7 +11790,7 @@
         <v>596</v>
       </c>
       <c r="E509" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="510" spans="1:5">
@@ -11819,7 +11807,7 @@
         <v>604</v>
       </c>
       <c r="E510" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="511" spans="1:5">
@@ -11836,7 +11824,7 @@
         <v>594</v>
       </c>
       <c r="E511" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="512" spans="1:5">
@@ -11853,7 +11841,7 @@
         <v>596</v>
       </c>
       <c r="E512" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="513" spans="1:5">
@@ -11870,7 +11858,7 @@
         <v>600</v>
       </c>
       <c r="E513" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="514" spans="1:5">
@@ -11887,7 +11875,7 @@
         <v>595</v>
       </c>
       <c r="E514" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="515" spans="1:5">
@@ -11904,7 +11892,7 @@
         <v>596</v>
       </c>
       <c r="E515" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="516" spans="1:5">
@@ -11921,7 +11909,7 @@
         <v>596</v>
       </c>
       <c r="E516" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="517" spans="1:5">
@@ -11938,7 +11926,7 @@
         <v>596</v>
       </c>
       <c r="E517" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="518" spans="1:5">
@@ -11955,7 +11943,7 @@
         <v>595</v>
       </c>
       <c r="E518" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="519" spans="1:5">
@@ -11972,7 +11960,7 @@
         <v>596</v>
       </c>
       <c r="E519" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="520" spans="1:5">
@@ -11989,7 +11977,7 @@
         <v>594</v>
       </c>
       <c r="E520" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="521" spans="1:5">
@@ -12006,7 +11994,7 @@
         <v>584</v>
       </c>
       <c r="E521" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="522" spans="1:5">
@@ -12023,7 +12011,7 @@
         <v>588</v>
       </c>
       <c r="E522" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="523" spans="1:5">
@@ -12057,7 +12045,7 @@
         <v>589</v>
       </c>
       <c r="E524" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="525" spans="1:5">
@@ -12074,7 +12062,7 @@
         <v>595</v>
       </c>
       <c r="E525" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="526" spans="1:5">
@@ -12091,7 +12079,7 @@
         <v>588</v>
       </c>
       <c r="E526" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="527" spans="1:5">
@@ -12108,7 +12096,7 @@
         <v>617</v>
       </c>
       <c r="E527" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="528" spans="1:5">
@@ -12159,7 +12147,7 @@
         <v>595</v>
       </c>
       <c r="E530" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="531" spans="1:5">
@@ -12176,7 +12164,7 @@
         <v>594</v>
       </c>
       <c r="E531" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="532" spans="1:5">
@@ -12193,7 +12181,7 @@
         <v>596</v>
       </c>
       <c r="E532" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="533" spans="1:5">
@@ -12227,7 +12215,7 @@
         <v>597</v>
       </c>
       <c r="E534" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="535" spans="1:5">
@@ -12244,7 +12232,7 @@
         <v>595</v>
       </c>
       <c r="E535" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="536" spans="1:5">
@@ -12261,7 +12249,7 @@
         <v>594</v>
       </c>
       <c r="E536" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="537" spans="1:5">
@@ -12295,7 +12283,7 @@
         <v>588</v>
       </c>
       <c r="E538" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="539" spans="1:5">
@@ -12312,7 +12300,7 @@
         <v>628</v>
       </c>
       <c r="E539" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="540" spans="1:5">
@@ -12329,7 +12317,7 @@
         <v>588</v>
       </c>
       <c r="E540" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="541" spans="1:5">
@@ -12360,7 +12348,7 @@
         <v>588</v>
       </c>
       <c r="E542" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="543" spans="1:5">
@@ -12377,7 +12365,7 @@
         <v>594</v>
       </c>
       <c r="E543" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="544" spans="1:5">
@@ -12428,7 +12416,7 @@
         <v>588</v>
       </c>
       <c r="E546" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="547" spans="1:5">
@@ -12462,7 +12450,7 @@
         <v>596</v>
       </c>
       <c r="E548" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="549" spans="1:5">
@@ -12479,7 +12467,7 @@
         <v>598</v>
       </c>
       <c r="E549" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="550" spans="1:5">
@@ -12513,7 +12501,7 @@
         <v>596</v>
       </c>
       <c r="E551" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="552" spans="1:5">
@@ -12530,7 +12518,7 @@
         <v>607</v>
       </c>
       <c r="E552" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="553" spans="1:5">
@@ -12547,7 +12535,7 @@
         <v>595</v>
       </c>
       <c r="E553" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="554" spans="1:5">
@@ -12564,7 +12552,7 @@
         <v>596</v>
       </c>
       <c r="E554" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="555" spans="1:5">
@@ -12581,7 +12569,7 @@
         <v>594</v>
       </c>
       <c r="E555" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="556" spans="1:5">
@@ -12598,7 +12586,7 @@
         <v>594</v>
       </c>
       <c r="E556" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="557" spans="1:5">
@@ -12615,7 +12603,7 @@
         <v>596</v>
       </c>
       <c r="E557" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="558" spans="1:5">
@@ -12632,7 +12620,7 @@
         <v>623</v>
       </c>
       <c r="E558" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="559" spans="1:5">
@@ -12649,7 +12637,7 @@
         <v>594</v>
       </c>
       <c r="E559" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="560" spans="1:5">
@@ -12666,7 +12654,7 @@
         <v>607</v>
       </c>
       <c r="E560" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="561" spans="1:5">
@@ -12700,7 +12688,7 @@
         <v>600</v>
       </c>
       <c r="E562" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="563" spans="1:5">
@@ -12717,7 +12705,7 @@
         <v>584</v>
       </c>
       <c r="E563" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="564" spans="1:5">
@@ -12734,7 +12722,7 @@
         <v>596</v>
       </c>
       <c r="E564" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="565" spans="1:5">
@@ -12751,7 +12739,7 @@
         <v>610</v>
       </c>
       <c r="E565" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="566" spans="1:5">
@@ -12768,7 +12756,7 @@
         <v>596</v>
       </c>
       <c r="E566" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="567" spans="1:5">
@@ -12785,7 +12773,7 @@
         <v>595</v>
       </c>
       <c r="E567" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="568" spans="1:5">
@@ -12802,7 +12790,7 @@
         <v>594</v>
       </c>
       <c r="E568" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="569" spans="1:5">
@@ -12836,7 +12824,7 @@
         <v>596</v>
       </c>
       <c r="E570" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="571" spans="1:5">
@@ -12853,7 +12841,7 @@
         <v>595</v>
       </c>
       <c r="E571" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="572" spans="1:5">
@@ -12870,7 +12858,7 @@
         <v>594</v>
       </c>
       <c r="E572" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="573" spans="1:5">
@@ -12904,7 +12892,7 @@
         <v>604</v>
       </c>
       <c r="E574" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="575" spans="1:5">
@@ -12921,7 +12909,7 @@
         <v>596</v>
       </c>
       <c r="E575" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="576" spans="1:5">
@@ -12938,7 +12926,7 @@
         <v>594</v>
       </c>
       <c r="E576" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="577" spans="1:5">
@@ -12955,7 +12943,7 @@
         <v>629</v>
       </c>
       <c r="E577" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="578" spans="1:5">
@@ -12972,7 +12960,7 @@
         <v>603</v>
       </c>
       <c r="E578" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="579" spans="1:5">
@@ -12989,7 +12977,7 @@
         <v>584</v>
       </c>
       <c r="E579" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="580" spans="1:5">
@@ -13006,7 +12994,7 @@
         <v>612</v>
       </c>
       <c r="E580" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="581" spans="1:5">
@@ -13023,7 +13011,7 @@
         <v>588</v>
       </c>
       <c r="E581" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="582" spans="1:5">
@@ -13040,7 +13028,7 @@
         <v>630</v>
       </c>
       <c r="E582" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="583" spans="1:5">
@@ -13057,7 +13045,7 @@
         <v>595</v>
       </c>
       <c r="E583" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="584" spans="1:5">
@@ -13074,7 +13062,7 @@
         <v>600</v>
       </c>
       <c r="E584" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="585" spans="1:5">
@@ -13091,7 +13079,7 @@
         <v>588</v>
       </c>
       <c r="E585" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="586" spans="1:5">
@@ -13108,7 +13096,7 @@
         <v>594</v>
       </c>
       <c r="E586" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="587" spans="1:5">
@@ -13142,7 +13130,7 @@
         <v>595</v>
       </c>
       <c r="E588" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="589" spans="1:5">
@@ -13159,7 +13147,7 @@
         <v>595</v>
       </c>
       <c r="E589" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="590" spans="1:5">
@@ -13176,7 +13164,7 @@
         <v>595</v>
       </c>
       <c r="E590" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="591" spans="1:5">
@@ -13193,7 +13181,7 @@
         <v>594</v>
       </c>
       <c r="E591" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="592" spans="1:5">
@@ -13210,7 +13198,7 @@
         <v>609</v>
       </c>
       <c r="E592" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="593" spans="1:5">
@@ -13227,7 +13215,7 @@
         <v>606</v>
       </c>
       <c r="E593" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="594" spans="1:5">
@@ -13244,7 +13232,7 @@
         <v>588</v>
       </c>
       <c r="E594" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="595" spans="1:5">
@@ -13261,7 +13249,7 @@
         <v>631</v>
       </c>
       <c r="E595" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="596" spans="1:5">
@@ -13295,7 +13283,7 @@
         <v>596</v>
       </c>
       <c r="E597" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="598" spans="1:5">
@@ -13312,7 +13300,7 @@
         <v>588</v>
       </c>
       <c r="E598" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="599" spans="1:5">
@@ -13329,7 +13317,7 @@
         <v>587</v>
       </c>
       <c r="E599" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="600" spans="1:5">
@@ -13346,7 +13334,7 @@
         <v>632</v>
       </c>
       <c r="E600" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="601" spans="1:5">
@@ -13380,7 +13368,7 @@
         <v>594</v>
       </c>
       <c r="E602" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="603" spans="1:5">
@@ -13397,7 +13385,7 @@
         <v>596</v>
       </c>
       <c r="E603" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="604" spans="1:5">
@@ -13431,7 +13419,7 @@
         <v>596</v>
       </c>
       <c r="E605" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="606" spans="1:5">
@@ -13448,7 +13436,7 @@
         <v>596</v>
       </c>
       <c r="E606" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="607" spans="1:5">
@@ -13465,7 +13453,7 @@
         <v>598</v>
       </c>
       <c r="E607" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="608" spans="1:5">
@@ -13499,7 +13487,7 @@
         <v>594</v>
       </c>
       <c r="E609" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="610" spans="1:5">
@@ -13533,7 +13521,7 @@
         <v>596</v>
       </c>
       <c r="E611" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="612" spans="1:5">
@@ -13550,7 +13538,7 @@
         <v>609</v>
       </c>
       <c r="E612" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="613" spans="1:5">
@@ -13584,7 +13572,7 @@
         <v>603</v>
       </c>
       <c r="E614" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="615" spans="1:5">
@@ -13601,7 +13589,7 @@
         <v>592</v>
       </c>
       <c r="E615" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="616" spans="1:5">
@@ -13618,7 +13606,7 @@
         <v>604</v>
       </c>
       <c r="E616" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="617" spans="1:5">
@@ -13635,7 +13623,7 @@
         <v>633</v>
       </c>
       <c r="E617" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="618" spans="1:5">
@@ -13652,7 +13640,7 @@
         <v>594</v>
       </c>
       <c r="E618" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="619" spans="1:5">
@@ -13686,7 +13674,7 @@
         <v>596</v>
       </c>
       <c r="E620" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="621" spans="1:5">
@@ -13703,7 +13691,7 @@
         <v>603</v>
       </c>
       <c r="E621" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="622" spans="1:5">
@@ -13720,7 +13708,7 @@
         <v>588</v>
       </c>
       <c r="E622" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="623" spans="1:5">
@@ -13754,7 +13742,7 @@
         <v>596</v>
       </c>
       <c r="E624" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="625" spans="1:5">
@@ -13771,7 +13759,7 @@
         <v>592</v>
       </c>
       <c r="E625" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="626" spans="1:5">
@@ -13788,7 +13776,7 @@
         <v>595</v>
       </c>
       <c r="E626" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="627" spans="1:5">
@@ -13805,7 +13793,7 @@
         <v>596</v>
       </c>
       <c r="E627" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="628" spans="1:5">
@@ -13822,7 +13810,7 @@
         <v>598</v>
       </c>
       <c r="E628" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="629" spans="1:5">
@@ -13839,7 +13827,7 @@
         <v>596</v>
       </c>
       <c r="E629" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="630" spans="1:5">
@@ -13856,7 +13844,7 @@
         <v>598</v>
       </c>
       <c r="E630" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="631" spans="1:5">
@@ -13873,7 +13861,7 @@
         <v>588</v>
       </c>
       <c r="E631" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="632" spans="1:5">
@@ -13904,7 +13892,7 @@
         <v>595</v>
       </c>
       <c r="E633" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="634" spans="1:5">
@@ -13921,7 +13909,7 @@
         <v>594</v>
       </c>
       <c r="E634" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="635" spans="1:5">
@@ -13938,7 +13926,7 @@
         <v>607</v>
       </c>
       <c r="E635" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="636" spans="1:5">
@@ -13955,7 +13943,7 @@
         <v>596</v>
       </c>
       <c r="E636" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="637" spans="1:5">
@@ -13972,7 +13960,7 @@
         <v>588</v>
       </c>
       <c r="E637" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="638" spans="1:5">
@@ -13989,7 +13977,7 @@
         <v>595</v>
       </c>
       <c r="E638" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="639" spans="1:5">
@@ -14023,7 +14011,7 @@
         <v>594</v>
       </c>
       <c r="E640" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="641" spans="1:5">
@@ -14040,7 +14028,7 @@
         <v>600</v>
       </c>
       <c r="E641" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="642" spans="1:5">
@@ -14057,7 +14045,7 @@
         <v>596</v>
       </c>
       <c r="E642" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="643" spans="1:5">
@@ -14074,7 +14062,7 @@
         <v>596</v>
       </c>
       <c r="E643" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="644" spans="1:5">
@@ -14091,7 +14079,7 @@
         <v>596</v>
       </c>
       <c r="E644" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="645" spans="1:5">
@@ -14108,7 +14096,7 @@
         <v>596</v>
       </c>
       <c r="E645" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="646" spans="1:5">
@@ -14125,7 +14113,7 @@
         <v>595</v>
       </c>
       <c r="E646" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="647" spans="1:5">
@@ -14142,7 +14130,7 @@
         <v>584</v>
       </c>
       <c r="E647" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="648" spans="1:5">
@@ -14176,7 +14164,7 @@
         <v>596</v>
       </c>
       <c r="E649" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="650" spans="1:5">
@@ -14193,7 +14181,7 @@
         <v>600</v>
       </c>
       <c r="E650" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="651" spans="1:5">
@@ -14227,7 +14215,7 @@
         <v>596</v>
       </c>
       <c r="E652" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="653" spans="1:5">
@@ -14244,7 +14232,7 @@
         <v>594</v>
       </c>
       <c r="E653" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="654" spans="1:5">
@@ -14261,7 +14249,7 @@
         <v>594</v>
       </c>
       <c r="E654" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="655" spans="1:5">
@@ -14278,7 +14266,7 @@
         <v>634</v>
       </c>
       <c r="E655" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="656" spans="1:5">
@@ -14295,7 +14283,7 @@
         <v>635</v>
       </c>
       <c r="E656" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="657" spans="1:5">
@@ -14312,7 +14300,7 @@
         <v>594</v>
       </c>
       <c r="E657" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="658" spans="1:5">
@@ -14329,7 +14317,7 @@
         <v>594</v>
       </c>
       <c r="E658" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="659" spans="1:5">
@@ -14346,7 +14334,7 @@
         <v>594</v>
       </c>
       <c r="E659" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="660" spans="1:5">
@@ -14363,7 +14351,7 @@
         <v>594</v>
       </c>
       <c r="E660" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="661" spans="1:5">
@@ -14380,7 +14368,7 @@
         <v>592</v>
       </c>
       <c r="E661" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="662" spans="1:5">
@@ -14414,7 +14402,7 @@
         <v>588</v>
       </c>
       <c r="E663" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="664" spans="1:5">
@@ -14431,7 +14419,7 @@
         <v>598</v>
       </c>
       <c r="E664" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="665" spans="1:5">
@@ -14448,7 +14436,7 @@
         <v>596</v>
       </c>
       <c r="E665" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="666" spans="1:5">
@@ -14465,7 +14453,7 @@
         <v>596</v>
       </c>
       <c r="E666" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="667" spans="1:5">
@@ -14482,7 +14470,7 @@
         <v>594</v>
       </c>
       <c r="E667" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="668" spans="1:5">
@@ -14499,7 +14487,7 @@
         <v>594</v>
       </c>
       <c r="E668" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="669" spans="1:5">
@@ -14533,7 +14521,7 @@
         <v>595</v>
       </c>
       <c r="E670" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="671" spans="1:5">
@@ -14567,7 +14555,7 @@
         <v>595</v>
       </c>
       <c r="E672" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="673" spans="1:5">
@@ -14584,7 +14572,7 @@
         <v>636</v>
       </c>
       <c r="E673" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="674" spans="1:5">
@@ -14601,7 +14589,7 @@
         <v>594</v>
       </c>
       <c r="E674" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="675" spans="1:5">
@@ -14618,7 +14606,7 @@
         <v>588</v>
       </c>
       <c r="E675" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="676" spans="1:5">
@@ -14635,7 +14623,7 @@
         <v>595</v>
       </c>
       <c r="E676" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="677" spans="1:5">
@@ -14652,7 +14640,7 @@
         <v>617</v>
       </c>
       <c r="E677" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="678" spans="1:5">
@@ -14669,7 +14657,7 @@
         <v>617</v>
       </c>
       <c r="E678" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="679" spans="1:5">
@@ -14686,7 +14674,7 @@
         <v>637</v>
       </c>
       <c r="E679" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="680" spans="1:5">
@@ -14703,7 +14691,7 @@
         <v>596</v>
       </c>
       <c r="E680" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="681" spans="1:5">
@@ -14720,7 +14708,7 @@
         <v>596</v>
       </c>
       <c r="E681" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="682" spans="1:5">
@@ -14737,7 +14725,7 @@
         <v>588</v>
       </c>
       <c r="E682" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="683" spans="1:5">
@@ -14771,7 +14759,7 @@
         <v>588</v>
       </c>
       <c r="E684" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="685" spans="1:5">
@@ -14788,7 +14776,7 @@
         <v>588</v>
       </c>
       <c r="E685" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="686" spans="1:5">
@@ -14805,7 +14793,7 @@
         <v>588</v>
       </c>
       <c r="E686" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="687" spans="1:5">
@@ -14822,7 +14810,7 @@
         <v>588</v>
       </c>
       <c r="E687" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="688" spans="1:5">
@@ -14839,7 +14827,7 @@
         <v>588</v>
       </c>
       <c r="E688" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="689" spans="1:5">
@@ -14856,7 +14844,7 @@
         <v>588</v>
       </c>
       <c r="E689" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="690" spans="1:5">
@@ -14873,7 +14861,7 @@
         <v>588</v>
       </c>
       <c r="E690" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="691" spans="1:5">
@@ -14890,7 +14878,7 @@
         <v>588</v>
       </c>
       <c r="E691" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="692" spans="1:5">
@@ -14907,7 +14895,7 @@
         <v>588</v>
       </c>
       <c r="E692" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="693" spans="1:5">
@@ -14924,7 +14912,7 @@
         <v>588</v>
       </c>
       <c r="E693" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="694" spans="1:5">
@@ -14941,7 +14929,7 @@
         <v>588</v>
       </c>
       <c r="E694" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="695" spans="1:5">
@@ -14975,7 +14963,7 @@
         <v>588</v>
       </c>
       <c r="E696" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="697" spans="1:5">
@@ -14992,7 +14980,7 @@
         <v>588</v>
       </c>
       <c r="E697" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="698" spans="1:5">
@@ -15009,7 +14997,7 @@
         <v>588</v>
       </c>
       <c r="E698" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="699" spans="1:5">
@@ -15026,7 +15014,7 @@
         <v>588</v>
       </c>
       <c r="E699" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="700" spans="1:5">
@@ -15043,7 +15031,7 @@
         <v>588</v>
       </c>
       <c r="E700" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
   </sheetData>
